--- a/7/2/4/Sociedades financieras 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/4/Sociedades financieras 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Serie</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1853,16 +1856,33 @@
         <v>78</v>
       </c>
       <c r="B75">
+        <v>2.4</v>
+      </c>
+      <c r="C75">
         <v>2.3</v>
       </c>
-      <c r="C75">
-        <v>2.2</v>
-      </c>
       <c r="D75">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="E75">
-        <v>153.1</v>
+        <v>152.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>2.7</v>
+      </c>
+      <c r="C76">
+        <v>2.6</v>
+      </c>
+      <c r="D76">
+        <v>107.6</v>
+      </c>
+      <c r="E76">
+        <v>155.2</v>
       </c>
     </row>
   </sheetData>
